--- a/TestDataXls/profile-tutor.xlsx
+++ b/TestDataXls/profile-tutor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DEE916-4708-4F80-9250-EAB264D2747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86E0BDE-A44F-4BC5-9F4A-E4FAD9F4FA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4133,7 +4133,7 @@
     <t>inperson</t>
   </si>
   <si>
-    <t>se8</t>
+    <t>se9</t>
   </si>
 </sst>
 </file>
@@ -5077,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestDataXls/profile-tutor.xlsx
+++ b/TestDataXls/profile-tutor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F291B70-8780-4CF2-BDEC-10CBD2BF00A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BF207-C31C-47BB-9980-054025E1E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
     <t>tutor60@nkt.com</t>
   </si>
   <si>
-    <t>se20</t>
+    <t>se21</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2221,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2570,7 +2570,7 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>370</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
         <v>352</v>

--- a/TestDataXls/profile-tutor.xlsx
+++ b/TestDataXls/profile-tutor.xlsx
@@ -1,59 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BF207-C31C-47BB-9980-054025E1E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Studio 1
-Online 2
-Drive 3
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="389">
   <si>
     <t>password</t>
   </si>
@@ -148,16 +110,10 @@
     <t>online</t>
   </si>
   <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
     <t>male</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>num_of_students</t>
@@ -1187,113 +1143,161 @@
     </r>
   </si>
   <si>
-    <t>math5</t>
-  </si>
-  <si>
     <t>D:\nurtem-test\Picturesprofile\math1.jpg</t>
   </si>
   <si>
-    <t>cl_music@nurtem.com</t>
-  </si>
-  <si>
-    <t>cello</t>
-  </si>
-  <si>
-    <t>C &amp; L Music</t>
-  </si>
-  <si>
     <t>business_name</t>
   </si>
   <si>
-    <t>sendhan2022@yahoo.com</t>
-  </si>
-  <si>
-    <t>amudhan2022@yahoo.com</t>
-  </si>
-  <si>
-    <t>Sendhan Therapist</t>
-  </si>
-  <si>
-    <t>Amudhan Therapist</t>
-  </si>
-  <si>
-    <t>A life coach is someone professionally trained to help you maximize your full potential and reach your desired results. They are like a supportive friend and a trusted adviser rolled into one. Life coaching will push you to identify your goals, hold you accountable and provide encouragement throughout your journey to become a better version of yourself.</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>D:\nurtem-test\Picturesprofile\personal.jpg</t>
-  </si>
-  <si>
     <t>D:\nurtem-test\Picturesprofile\personal-growth.png</t>
   </si>
   <si>
-    <t>sen2023</t>
-  </si>
-  <si>
-    <t>amu2023</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Muthialpet, Puducherry</t>
-  </si>
-  <si>
-    <t>Lawspet</t>
-  </si>
-  <si>
-    <t>Mudaliarpet</t>
-  </si>
-  <si>
-    <t>Muthialpet</t>
-  </si>
-  <si>
     <t>business_time</t>
   </si>
   <si>
-    <t>9:00 AM to 10:00 PM</t>
-  </si>
-  <si>
-    <t>srinivasesaivanan6324@gmail.com</t>
-  </si>
-  <si>
-    <t>Srini Vas</t>
-  </si>
-  <si>
     <t>Test@1234</t>
   </si>
   <si>
     <t>D:\test\Picturesprofile\42.jpg</t>
   </si>
   <si>
-    <t>srini2022</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>C  L Music</t>
-  </si>
-  <si>
-    <t>Kyle Pew</t>
-  </si>
-  <si>
-    <t>tutor60@nkt.com</t>
-  </si>
-  <si>
-    <t>se21</t>
+    <t>tutor1@netk.com</t>
+  </si>
+  <si>
+    <t>tutor2@netk.com</t>
+  </si>
+  <si>
+    <t>tutor3@netk.com</t>
+  </si>
+  <si>
+    <t>tutor4@netk.com</t>
+  </si>
+  <si>
+    <t>tutor5@netk.com</t>
+  </si>
+  <si>
+    <t>tutor6@netk.com</t>
+  </si>
+  <si>
+    <t>tutor7@netk.com</t>
+  </si>
+  <si>
+    <t>Test@5678</t>
+  </si>
+  <si>
+    <t>invalid_password</t>
+  </si>
+  <si>
+    <t>invalid_email</t>
+  </si>
+  <si>
+    <t>tutor4netk.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-person </t>
+  </si>
+  <si>
+    <t>1234 Elm St, Springfield, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">johnsmith    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC Tutoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith     </t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>I am a Python tutor with 5 years of experience. I provide personalized coaching to help you master Python programming.</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>5678 Oak Ave, New York, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdoe_group   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XYZ Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doe       </t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>XYZ Group offers online Java classes to enhance your programming skills. Join us for interactive and engaging sessions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8901 Maple Blvd, Los Angeles, CA </t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid           </t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>hybrid_co</t>
+  </si>
+  <si>
+    <t>PQR Hybrid Coaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson   </t>
+  </si>
+  <si>
+    <t>PQR Hybrid Coaching provides a mix of online and in-person C++ classes, catering to various learning preferences.</t>
+  </si>
+  <si>
+    <t>ssss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1455,19 +1459,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1940,7 +1931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1973,26 +1964,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2025,23 +1999,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2217,41 +2174,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="16" width="11.88671875" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.44140625" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" customWidth="1"/>
-    <col min="26" max="26" width="24.44140625" customWidth="1"/>
-    <col min="27" max="27" width="40.6640625" customWidth="1"/>
-    <col min="29" max="29" width="30.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" customWidth="1"/>
+    <col min="27" max="27" width="40.7109375" customWidth="1"/>
+    <col min="29" max="29" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2298,16 +2255,16 @@
         <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="S1" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="T1" t="s">
         <v>4</v>
@@ -2340,69 +2297,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>347</v>
+      <c r="D2" t="s">
+        <v>346</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2">
+        <v>9876543210</v>
+      </c>
+      <c r="N2" t="s">
         <v>359</v>
-      </c>
-      <c r="M2">
-        <v>9578618409</v>
-      </c>
-      <c r="N2" t="s">
-        <v>353</v>
       </c>
       <c r="O2" t="s">
         <v>360</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="R2" t="s">
-        <v>349</v>
-      </c>
-      <c r="S2" t="s">
+        <v>362</v>
+      </c>
+      <c r="T2" t="s">
+        <v>363</v>
+      </c>
+      <c r="U2" t="s">
         <v>364</v>
       </c>
       <c r="V2">
-        <v>605003</v>
+        <v>62701</v>
       </c>
       <c r="W2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Z2" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="AA2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -2411,69 +2371,72 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>353</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
-      </c>
-      <c r="L3" t="s">
-        <v>359</v>
+        <v>367</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="M3">
-        <v>9578618409</v>
+        <v>1234567890</v>
       </c>
       <c r="N3" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="O3" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="P3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="R3" t="s">
-        <v>350</v>
-      </c>
-      <c r="S3" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+      <c r="T3" t="s">
+        <v>373</v>
+      </c>
+      <c r="U3" t="s">
+        <v>374</v>
       </c>
       <c r="V3">
-        <v>605003</v>
+        <v>10001</v>
       </c>
       <c r="W3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>375</v>
       </c>
       <c r="Y3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Z3" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="AA3" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AB3">
         <v>2</v>
@@ -2482,69 +2445,69 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K4" t="s">
+        <v>380</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="M4">
+        <v>9988776655</v>
+      </c>
+      <c r="N4" t="s">
+        <v>381</v>
+      </c>
+      <c r="O4" t="s">
+        <v>382</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>383</v>
+      </c>
+      <c r="R4" t="s">
+        <v>384</v>
+      </c>
+      <c r="T4" t="s">
+        <v>385</v>
+      </c>
+      <c r="U4" t="s">
+        <v>386</v>
+      </c>
+      <c r="V4">
+        <v>90001</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
         <v>365</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>352</v>
-      </c>
-      <c r="L4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M4">
-        <v>9578618409</v>
-      </c>
-      <c r="N4" t="s">
-        <v>344</v>
-      </c>
-      <c r="O4" t="s">
-        <v>362</v>
-      </c>
-      <c r="P4">
-        <v>50</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>369</v>
-      </c>
-      <c r="R4" t="s">
-        <v>366</v>
-      </c>
-      <c r="S4" t="s">
-        <v>364</v>
-      </c>
-      <c r="V4">
-        <v>605003</v>
-      </c>
-      <c r="W4">
-        <v>10</v>
-      </c>
-      <c r="X4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>358</v>
-      </c>
       <c r="Z4" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="AA4" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AB4">
         <v>3</v>
@@ -2553,75 +2516,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>373</v>
+      <c r="D5" t="s">
+        <v>355</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>352</v>
-      </c>
-      <c r="L5" t="s">
-        <v>359</v>
-      </c>
-      <c r="M5">
-        <v>9578618409</v>
-      </c>
-      <c r="N5" t="s">
-        <v>344</v>
-      </c>
-      <c r="O5" t="s">
-        <v>362</v>
-      </c>
-      <c r="P5">
-        <v>50</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>374</v>
-      </c>
-      <c r="R5" t="s">
-        <v>372</v>
-      </c>
-      <c r="S5" t="s">
-        <v>364</v>
-      </c>
-      <c r="T5" t="s">
-        <v>371</v>
-      </c>
-      <c r="U5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5">
-        <v>605003</v>
-      </c>
-      <c r="W5">
-        <v>30</v>
-      </c>
-      <c r="X5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>351</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AB5">
         <v>4</v>
@@ -2630,72 +2547,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>370</v>
-      </c>
-      <c r="K6" t="s">
-        <v>352</v>
-      </c>
-      <c r="L6" t="s">
-        <v>359</v>
-      </c>
-      <c r="M6">
-        <v>9578618409</v>
-      </c>
-      <c r="N6" t="s">
-        <v>353</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6">
-        <v>50</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>341</v>
-      </c>
-      <c r="R6" t="s">
-        <v>345</v>
-      </c>
-      <c r="T6" t="s">
-        <v>345</v>
-      </c>
-      <c r="U6" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6">
-        <v>605003</v>
-      </c>
-      <c r="W6">
-        <v>10</v>
-      </c>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>351</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="Z6" s="5"/>
       <c r="AA6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AB6">
         <v>5</v>
@@ -2704,1316 +2575,1497 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="L8" s="4"/>
+      <c r="AA7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="L9" s="4"/>
+      <c r="AA8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
+      <c r="AA9" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
-      <c r="L10" s="4"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="M10" s="4"/>
+      <c r="AA10" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB10">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="AA11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="AA12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB12">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" s="4"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="AA13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AA14" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB14">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="AA15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB15">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="L17" s="4"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="L18" s="4"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="L19" s="4"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="L20" s="4"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
       <c r="L22" s="4"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
       <c r="L23" s="4"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="E24" s="1"/>
       <c r="L24" s="4"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
       <c r="L25" s="4"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
       <c r="L26" s="4"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
-      <c r="L27" s="4"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
-      <c r="L28" s="4"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
-      <c r="L29" s="4"/>
-      <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M29" s="4"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
+      <c r="L30" s="4"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="1"/>
+      <c r="L31" s="4"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="L32" s="4"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="1"/>
       <c r="L33" s="4"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="1"/>
       <c r="L34" s="4"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="1"/>
       <c r="L35" s="4"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="1"/>
       <c r="L36" s="4"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="1"/>
       <c r="L37" s="4"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="1"/>
       <c r="L38" s="4"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="1"/>
       <c r="L39" s="4"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="1"/>
       <c r="L40" s="4"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="1"/>
       <c r="L41" s="4"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="1"/>
       <c r="L42" s="4"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="1"/>
-      <c r="L43" s="4"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="1"/>
       <c r="L44" s="4"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="1"/>
       <c r="L45" s="4"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="1"/>
+      <c r="L46" s="4"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="1"/>
       <c r="L47" s="4"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="1"/>
       <c r="L48" s="4"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="1"/>
       <c r="L49" s="4"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
       <c r="L50" s="4"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
       <c r="E51" s="1"/>
       <c r="L51" s="4"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
       <c r="E52" s="1"/>
       <c r="L52" s="4"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="E53" s="1"/>
       <c r="L53" s="4"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="E54" s="1"/>
       <c r="L54" s="4"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="E55" s="1"/>
       <c r="L55" s="4"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="E56" s="1"/>
       <c r="L56" s="4"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="E57" s="1"/>
       <c r="L57" s="4"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="E58" s="1"/>
-      <c r="L58" s="4"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="E59" s="1"/>
       <c r="L59" s="4"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="E60" s="1"/>
       <c r="L60" s="4"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="E61" s="1"/>
+      <c r="L61" s="4"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="E62" s="1"/>
       <c r="L62" s="4"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="E63" s="1"/>
-      <c r="L63" s="4"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="E64" s="1"/>
       <c r="L64" s="4"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="E65" s="1"/>
       <c r="L65" s="4"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="E66" s="1"/>
+      <c r="L66" s="4"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="E67" s="1"/>
       <c r="L67" s="4"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="E68" s="1"/>
       <c r="L68" s="4"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="E69" s="1"/>
-      <c r="L69" s="4"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="L70" s="4"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="E71" s="1"/>
       <c r="L71" s="4"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="E72" s="1"/>
+      <c r="L72" s="4"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="E74" s="1"/>
       <c r="L74" s="4"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="E75" s="1"/>
-      <c r="L75" s="4"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="E76" s="1"/>
+      <c r="L76" s="4"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="L77" s="4"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="E78" s="1"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="E79" s="1"/>
-      <c r="L79" s="4"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
-      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="E81" s="1"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="E82" s="1"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="E83" s="1"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="E84" s="1"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="E85" s="1"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="E86" s="1"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="E87" s="1"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="E88" s="1"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="E89" s="1"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="E90" s="1"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="E91" s="1"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="E92" s="1"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="E93" s="1"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="E94" s="1"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="E95" s="1"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="E96" s="1"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="E97" s="1"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="E98" s="1"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="E99" s="1"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="E100" s="1"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="E101" s="1"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="E102" s="1"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="E103" s="1"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="E104" s="1"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="E105" s="1"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="E106" s="1"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="E107" s="1"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="E108" s="1"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="E109" s="1"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="E110" s="1"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="E111" s="1"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="E112" s="1"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="E113" s="1"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="E114" s="1"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="E115" s="1"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="E116" s="1"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="E117" s="1"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="E118" s="1"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="E119" s="1"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="E120" s="1"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="E121" s="1"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="E122" s="1"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="E123" s="1"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="E124" s="1"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="E125" s="1"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="E126" s="1"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="E127" s="1"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="E128" s="1"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="E129" s="1"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="E130" s="1"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="E131" s="1"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="E132" s="1"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="E133" s="1"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="E134" s="1"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="E135" s="1"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="E136" s="1"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="E137" s="1"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="E138" s="1"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="E139" s="1"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="E140" s="1"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="E141" s="1"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="E142" s="1"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="E143" s="1"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="3:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="E144" s="1"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="E145" s="1"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="E146" s="1"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="E147" s="1"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="E148" s="1"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="E149" s="1"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="E150" s="1"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="E151" s="1"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="E152" s="1"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="E153" s="1"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="7"/>
       <c r="C154" s="2"/>
       <c r="E154" s="1"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B155" s="7"/>
       <c r="C155" s="2"/>
       <c r="E155" s="1"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" s="7"/>
       <c r="C156" s="2"/>
       <c r="E156" s="1"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="2"/>
       <c r="E157" s="1"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" s="2"/>
       <c r="E158" s="1"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" s="2"/>
       <c r="E159" s="1"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
       <c r="C160" s="2"/>
       <c r="E160" s="1"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
       <c r="C161" s="2"/>
       <c r="E161" s="1"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
       <c r="C162" s="2"/>
       <c r="E162" s="1"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
       <c r="C163" s="2"/>
       <c r="E163" s="1"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" s="2"/>
       <c r="E164" s="1"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" s="2"/>
       <c r="E165" s="1"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" s="2"/>
       <c r="E166" s="1"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" s="2"/>
       <c r="E167" s="1"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
       <c r="C168" s="2"/>
       <c r="E168" s="1"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
       <c r="C169" s="2"/>
       <c r="E169" s="1"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
       <c r="C170" s="2"/>
       <c r="E170" s="1"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
       <c r="C171" s="2"/>
       <c r="E171" s="1"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" s="2"/>
       <c r="E172" s="1"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" s="2"/>
       <c r="E173" s="1"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" s="2"/>
       <c r="E174" s="1"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" s="2"/>
       <c r="E175" s="1"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
       <c r="C176" s="2"/>
       <c r="E176" s="1"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
       <c r="C177" s="2"/>
       <c r="E177" s="1"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
       <c r="C178" s="2"/>
       <c r="E178" s="1"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
       <c r="C179" s="2"/>
       <c r="E179" s="1"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
       <c r="E180" s="1"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" s="2"/>
       <c r="E181" s="1"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" s="2"/>
       <c r="E182" s="1"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="2"/>
       <c r="E183" s="1"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" s="2"/>
       <c r="E184" s="1"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
       <c r="C185" s="2"/>
       <c r="E185" s="1"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
       <c r="C186" s="2"/>
       <c r="E186" s="1"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
       <c r="C187" s="2"/>
       <c r="E187" s="1"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" s="2"/>
       <c r="E188" s="1"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" s="2"/>
       <c r="E189" s="1"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="2"/>
       <c r="E190" s="1"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" s="2"/>
       <c r="E191" s="1"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" s="2"/>
       <c r="E192" s="1"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="C193" s="2"/>
       <c r="E193" s="1"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
       <c r="C194" s="2"/>
       <c r="E194" s="1"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
       <c r="C195" s="2"/>
       <c r="E195" s="1"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" s="2"/>
       <c r="E196" s="1"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" s="2"/>
       <c r="E197" s="1"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="2"/>
       <c r="E198" s="1"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" s="2"/>
       <c r="E199" s="1"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="C200" s="2"/>
       <c r="E200" s="1"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
       <c r="C201" s="2"/>
       <c r="E201" s="1"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
       <c r="C202" s="2"/>
       <c r="E202" s="1"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
       <c r="C203" s="2"/>
       <c r="E203" s="1"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" s="2"/>
       <c r="E204" s="1"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="2"/>
       <c r="E205" s="1"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="2"/>
       <c r="E206" s="1"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="2"/>
       <c r="E207" s="1"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
       <c r="C208" s="2"/>
       <c r="E208" s="1"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
       <c r="C209" s="2"/>
       <c r="E209" s="1"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
       <c r="C210" s="2"/>
       <c r="E210" s="1"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
       <c r="C211" s="2"/>
       <c r="E211" s="1"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" s="2"/>
+      <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="Z212" s="5"/>
     </row>
-    <row r="213" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" s="2"/>
+      <c r="D213" s="8"/>
       <c r="E213" s="1"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" s="2"/>
+      <c r="D214" s="8"/>
       <c r="E214" s="1"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="1"/>
+      <c r="D215" s="8"/>
       <c r="E215" s="1"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" s="2"/>
       <c r="D216" s="8"/>
       <c r="E216" s="1"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
       <c r="C217" s="2"/>
       <c r="D217" s="8"/>
       <c r="E217" s="1"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
       <c r="C218" s="2"/>
       <c r="D218" s="8"/>
       <c r="E218" s="1"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
       <c r="C219" s="2"/>
       <c r="D219" s="8"/>
       <c r="E219" s="1"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" s="2"/>
       <c r="D220" s="8"/>
       <c r="E220" s="1"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
       <c r="C221" s="2"/>
       <c r="D221" s="8"/>
       <c r="E221" s="1"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B222" s="7"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="1"/>
-      <c r="Z222" s="5"/>
-    </row>
-    <row r="223" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B223" s="7"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="1"/>
-      <c r="Z223" s="5"/>
-    </row>
-    <row r="224" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B224" s="7"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="1"/>
-      <c r="Z224" s="5"/>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D225" s="6"/>
+    <row r="222" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D222" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2:E20" r:id="rId1" display="Admin@123" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" display="tutor_time_private_math_tutor@nurtem.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{83A1694A-662E-4E23-826C-222A6B70E591}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1">
         <v>50</v>
       </c>
       <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
       <c r="I1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K1">
         <v>94536</v>
@@ -4022,16 +4074,16 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q1">
         <v>1</v>
@@ -4040,36 +4092,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K2">
         <v>94538</v>
@@ -4078,13 +4130,13 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -4093,36 +4145,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K3">
         <v>94538</v>
@@ -4131,13 +4183,13 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -4146,36 +4198,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K4">
         <v>94546</v>
@@ -4184,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -4199,36 +4251,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K5">
         <v>94536</v>
@@ -4237,13 +4289,13 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -4252,36 +4304,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K6">
         <v>94539</v>
@@ -4290,13 +4342,13 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -4305,36 +4357,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K7">
         <v>94539</v>
@@ -4343,13 +4395,13 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -4358,36 +4410,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K8">
         <v>94539</v>
@@ -4396,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -4411,36 +4463,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K9">
         <v>94539</v>
@@ -4449,13 +4501,13 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -4464,36 +4516,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K10">
         <v>94538</v>
@@ -4502,13 +4554,13 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -4517,33 +4569,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K11">
         <v>94538</v>
@@ -4552,13 +4604,13 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -4567,33 +4619,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K12">
         <v>94539</v>
@@ -4602,13 +4654,13 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q12">
         <v>12</v>
@@ -4617,33 +4669,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K13">
         <v>94538</v>
@@ -4652,13 +4704,13 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q13">
         <v>13</v>
@@ -4667,33 +4719,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14">
         <v>94536</v>
@@ -4702,10 +4754,10 @@
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q14">
         <v>14</v>
@@ -4714,39 +4766,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K15">
         <v>94539</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q15">
         <v>15</v>
@@ -4755,36 +4807,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K16">
         <v>94560</v>
@@ -4793,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q16">
         <v>16</v>
@@ -4808,36 +4860,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K17">
         <v>94536</v>
@@ -4846,13 +4898,13 @@
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q17">
         <v>17</v>
@@ -4861,36 +4913,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K18">
         <v>94539</v>
@@ -4899,13 +4951,13 @@
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q18">
         <v>18</v>
@@ -4914,36 +4966,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K19">
         <v>94539</v>
@@ -4952,13 +5004,13 @@
         <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q19">
         <v>19</v>
@@ -4967,36 +5019,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K20">
         <v>94539</v>
@@ -5005,13 +5057,13 @@
         <v>10</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q20">
         <v>20</v>
@@ -5020,36 +5072,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K21">
         <v>95035</v>
@@ -5058,13 +5110,13 @@
         <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q21">
         <v>21</v>
@@ -5073,36 +5125,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K22">
         <v>94587</v>
@@ -5111,13 +5163,13 @@
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q22">
         <v>22</v>
@@ -5126,36 +5178,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
       <c r="E23">
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K23">
         <v>94579</v>
@@ -5164,13 +5216,13 @@
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q23">
         <v>23</v>
@@ -5179,36 +5231,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K24">
         <v>94587</v>
@@ -5217,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q24">
         <v>24</v>
@@ -5232,36 +5284,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K25">
         <v>94538</v>
@@ -5270,13 +5322,13 @@
         <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q25">
         <v>25</v>
@@ -5285,36 +5337,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K26">
         <v>94538</v>
@@ -5323,13 +5375,13 @@
         <v>10</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q26">
         <v>26</v>
@@ -5338,36 +5390,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K27">
         <v>94560</v>
@@ -5376,13 +5428,13 @@
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q27">
         <v>27</v>
@@ -5391,36 +5443,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K28">
         <v>95120</v>
@@ -5429,13 +5481,13 @@
         <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q28">
         <v>28</v>
@@ -5444,36 +5496,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K29">
         <v>94306</v>
@@ -5482,13 +5534,13 @@
         <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q29">
         <v>29</v>
@@ -5497,36 +5549,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K30">
         <v>94560</v>
@@ -5535,13 +5587,13 @@
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q30">
         <v>30</v>
@@ -5550,36 +5602,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31">
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K31">
         <v>94560</v>
@@ -5588,13 +5640,13 @@
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q31">
         <v>31</v>
@@ -5603,36 +5655,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K32">
         <v>94541</v>
@@ -5641,13 +5693,13 @@
         <v>10</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q32">
         <v>32</v>
@@ -5656,36 +5708,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K33">
         <v>94538</v>
@@ -5694,13 +5746,13 @@
         <v>10</v>
       </c>
       <c r="M33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q33">
         <v>33</v>
@@ -5709,36 +5761,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K34">
         <v>94538</v>
@@ -5747,13 +5799,13 @@
         <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q34">
         <v>34</v>
@@ -5762,36 +5814,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K35">
         <v>94538</v>
@@ -5800,13 +5852,13 @@
         <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q35">
         <v>35</v>
@@ -5815,36 +5867,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36">
         <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K36">
         <v>95035</v>
@@ -5853,13 +5905,13 @@
         <v>10</v>
       </c>
       <c r="M36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q36">
         <v>36</v>
@@ -5868,36 +5920,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K37">
         <v>94587</v>
@@ -5906,13 +5958,13 @@
         <v>10</v>
       </c>
       <c r="M37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q37">
         <v>37</v>
@@ -5921,36 +5973,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E38">
         <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K38">
         <v>94022</v>
@@ -5959,13 +6011,13 @@
         <v>10</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q38">
         <v>38</v>
@@ -5974,36 +6026,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K39">
         <v>94538</v>
@@ -6012,13 +6064,13 @@
         <v>10</v>
       </c>
       <c r="M39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q39">
         <v>39</v>
@@ -6027,36 +6079,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K40">
         <v>94536</v>
@@ -6065,13 +6117,13 @@
         <v>10</v>
       </c>
       <c r="M40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q40">
         <v>40</v>
@@ -6080,36 +6132,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K41">
         <v>94539</v>
@@ -6118,13 +6170,13 @@
         <v>10</v>
       </c>
       <c r="M41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q41">
         <v>41</v>
@@ -6133,36 +6185,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K42">
         <v>94587</v>
@@ -6171,13 +6223,13 @@
         <v>10</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q42">
         <v>42</v>
@@ -6186,36 +6238,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K43">
         <v>94539</v>
@@ -6224,13 +6276,13 @@
         <v>10</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q43">
         <v>43</v>
@@ -6239,36 +6291,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K44">
         <v>94539</v>
@@ -6277,13 +6329,13 @@
         <v>10</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q44">
         <v>44</v>
@@ -6292,36 +6344,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K45">
         <v>94560</v>
@@ -6330,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="M45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q45">
         <v>45</v>
@@ -6345,36 +6397,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K46">
         <v>94040</v>
@@ -6383,13 +6435,13 @@
         <v>10</v>
       </c>
       <c r="M46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q46">
         <v>46</v>
@@ -6398,36 +6450,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E47">
         <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K47">
         <v>94538</v>
@@ -6436,13 +6488,13 @@
         <v>10</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q47">
         <v>47</v>
@@ -6451,36 +6503,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E48">
         <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K48">
         <v>94588</v>
@@ -6489,13 +6541,13 @@
         <v>10</v>
       </c>
       <c r="M48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q48">
         <v>48</v>
@@ -6504,36 +6556,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49">
         <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K49">
         <v>94925</v>
@@ -6542,13 +6594,13 @@
         <v>10</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q49">
         <v>49</v>
@@ -6557,36 +6609,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K50">
         <v>94566</v>
@@ -6595,13 +6647,13 @@
         <v>10</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q50">
         <v>50</v>
@@ -6610,33 +6662,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K51">
         <v>94568</v>
@@ -6645,13 +6697,13 @@
         <v>10</v>
       </c>
       <c r="M51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q51">
         <v>51</v>
@@ -6660,33 +6712,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K52">
         <v>94303</v>
@@ -6695,13 +6747,13 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q52">
         <v>52</v>
@@ -6710,33 +6762,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K53">
         <v>94306</v>
@@ -6745,13 +6797,13 @@
         <v>10</v>
       </c>
       <c r="M53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q53">
         <v>53</v>
@@ -6760,33 +6812,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E54">
         <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K54">
         <v>94306</v>
@@ -6795,13 +6847,13 @@
         <v>10</v>
       </c>
       <c r="M54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q54">
         <v>54</v>
@@ -6810,33 +6862,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E55">
         <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K55">
         <v>94546</v>
@@ -6845,13 +6897,13 @@
         <v>10</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q55">
         <v>55</v>
@@ -6860,33 +6912,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E56">
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K56">
         <v>94538</v>
@@ -6895,13 +6947,13 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q56">
         <v>56</v>
@@ -6910,33 +6962,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E57">
         <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K57">
         <v>94566</v>
@@ -6945,13 +6997,13 @@
         <v>10</v>
       </c>
       <c r="M57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q57">
         <v>57</v>
@@ -6960,33 +7012,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E58">
         <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K58">
         <v>94588</v>
@@ -6995,13 +7047,13 @@
         <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q58">
         <v>58</v>
@@ -7010,33 +7062,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E59">
         <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K59">
         <v>95378</v>
@@ -7045,13 +7097,13 @@
         <v>10</v>
       </c>
       <c r="M59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q59">
         <v>59</v>
@@ -7060,33 +7112,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60">
         <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K60">
         <v>94087</v>
@@ -7095,13 +7147,13 @@
         <v>10</v>
       </c>
       <c r="M60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q60">
         <v>60</v>
@@ -7110,33 +7162,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E61">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K61">
         <v>95035</v>
@@ -7145,13 +7197,13 @@
         <v>10</v>
       </c>
       <c r="M61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q61">
         <v>61</v>
@@ -7160,33 +7212,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E62">
         <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K62">
         <v>95131</v>
@@ -7195,13 +7247,13 @@
         <v>10</v>
       </c>
       <c r="M62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q62">
         <v>62</v>
@@ -7210,33 +7262,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E63">
         <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K63">
         <v>94587</v>
@@ -7245,13 +7297,13 @@
         <v>10</v>
       </c>
       <c r="M63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q63">
         <v>63</v>
@@ -7260,33 +7312,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E64">
         <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J64" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K64">
         <v>94587</v>
@@ -7295,13 +7347,13 @@
         <v>10</v>
       </c>
       <c r="M64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q64">
         <v>64</v>
@@ -7310,33 +7362,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E65">
         <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K65">
         <v>95128</v>
@@ -7345,13 +7397,13 @@
         <v>10</v>
       </c>
       <c r="M65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q65">
         <v>65</v>
@@ -7360,33 +7412,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E66">
         <v>50</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K66">
         <v>94022</v>
@@ -7395,13 +7447,13 @@
         <v>10</v>
       </c>
       <c r="M66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q66">
         <v>66</v>
@@ -7410,33 +7462,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E67">
         <v>50</v>
       </c>
       <c r="G67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I67" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K67">
         <v>94041</v>
@@ -7445,13 +7497,13 @@
         <v>10</v>
       </c>
       <c r="M67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q67">
         <v>67</v>
@@ -7460,33 +7512,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E68">
         <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K68">
         <v>94539</v>
@@ -7495,13 +7547,13 @@
         <v>10</v>
       </c>
       <c r="M68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q68">
         <v>68</v>
@@ -7510,33 +7562,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E69">
         <v>50</v>
       </c>
       <c r="G69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K69">
         <v>95035</v>
@@ -7545,13 +7597,13 @@
         <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q69">
         <v>69</v>
@@ -7560,33 +7612,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E70">
         <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J70" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K70">
         <v>94131</v>
@@ -7595,13 +7647,13 @@
         <v>10</v>
       </c>
       <c r="M70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q70">
         <v>70</v>
@@ -7610,33 +7662,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E71">
         <v>50</v>
       </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K71">
         <v>95125</v>
@@ -7645,13 +7697,13 @@
         <v>10</v>
       </c>
       <c r="M71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q71">
         <v>71</v>
@@ -7660,33 +7712,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E72">
         <v>50</v>
       </c>
       <c r="G72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K72">
         <v>94040</v>
@@ -7695,13 +7747,13 @@
         <v>10</v>
       </c>
       <c r="M72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q72">
         <v>72</v>
@@ -7710,33 +7762,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E73">
         <v>50</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K73">
         <v>94025</v>
@@ -7745,13 +7797,13 @@
         <v>10</v>
       </c>
       <c r="M73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q73">
         <v>73</v>
@@ -7760,33 +7812,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E74">
         <v>50</v>
       </c>
       <c r="G74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K74">
         <v>94536</v>
@@ -7795,13 +7847,13 @@
         <v>10</v>
       </c>
       <c r="M74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q74">
         <v>74</v>
@@ -7810,33 +7862,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E75">
         <v>50</v>
       </c>
       <c r="G75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K75">
         <v>95035</v>
@@ -7845,13 +7897,13 @@
         <v>10</v>
       </c>
       <c r="M75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q75">
         <v>75</v>
@@ -7860,33 +7912,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E76">
         <v>50</v>
       </c>
       <c r="G76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I76" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J76" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K76">
         <v>95124</v>
@@ -7895,13 +7947,13 @@
         <v>10</v>
       </c>
       <c r="M76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q76">
         <v>76</v>
@@ -7910,33 +7962,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E77">
         <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K77">
         <v>94545</v>
@@ -7945,13 +7997,13 @@
         <v>10</v>
       </c>
       <c r="M77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q77">
         <v>77</v>
